--- a/281_MAJ_XSD/ig/StructureDefinition-sdo-task.xlsx
+++ b/281_MAJ_XSD/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T10:33:08+00:00</t>
+    <t>2025-01-23T11:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
